--- a/core/canatrace.xlsx
+++ b/core/canatrace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\AI HUB\Project\Apr 21\canatrace-chatbot\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI HUB\Trent-5610\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FDEC3-91AE-4925-89DF-1CED9A1456DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C159FE4B-7ECD-49FB-9B79-287FF61F1B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="480">
   <si>
     <t>Answer</t>
   </si>
@@ -722,497 +722,767 @@
     <t>FR_Answer</t>
   </si>
   <si>
-    <t>Saisissez le nom et le logo de votre entreprise et cliquez sur « Envoyer ». Dans les 24 heures, vous recevrez un courriel vous informant que votre outil de dépistage de la COVID est prêt à être utilisé. Ce courriel comprendra également votre code QR personnel à afficher aux clients et aux employés qui pourront le balayer pour commencer le processus de dépistage. Le courriel contiendra également des instructions sur la façon d'accéder à l'écran d'administration afin que vous puissiez gérer votre tableau de bord.</t>
-  </si>
-  <si>
-    <t>Une fois que CANATRACE est configuré pour votre entreprise, tout ce que vous avez à faire est d'afficher le code QR pour que les clients/employés puissent le balayer. Ils balaient le code, qui les dirige vers une page unique à votre entreprise. Ils soumettent ensuite leurs coordonnées et répondent aux questions de dépistage basées sur la législation locale. Une fois qu'ils ont terminé, un crochet vert s'affiche et ceux-ci peuvent vous le montrer pour indiquer qu'ils ont terminé le processus.</t>
-  </si>
-  <si>
-    <t>CANATRACEMC est une solution gratuite, rapide, sécurisée et bilingue permettant aux entreprises de collecter les renseignements de leurs clients réguliers et de leurs employés, conformément aux directives municipales partout au Canada.</t>
-  </si>
-  <si>
-    <t>CANATRACEMC sera toujours gratuit, vous n'aurez jamais à payer pour son utilisation. CANATRACEMC est né d’une idée dont l’objectif était d’aider les entreprises locales de partout au Canada qui se démènent pour ramener leurs clients et nous restons engagés à vous aider.</t>
-  </si>
-  <si>
-    <t>La réglementation liée à la COVID évolue constamment. Nos champs de données et nos modèles sont régulièrement mis à jour pour refléter les directives locales et provinciales (y compris les zones de couleur) afin que vous n'ayez pas à vous en occuper ou à vous inquiéter. Si un élément dont vous avez besoin n'est pas présent, faites-le-nous savoir et nous l'ajouterons sans frais pour vous. Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
-  </si>
-  <si>
-    <t>La réglementation liée à la COVID varie selon les provinces et les municipalités. Nos champs de données et nos modèles sont régulièrement mis à jour pour refléter les directives locales et provinciales (y compris les zones de couleur) et comprennent tous les champs de données pour les renseignements que vous devez collecter. Si un élément dont vous avez besoin n'est pas présent, faites-le-nous savoir et nous l'ajouterons sans frais pour vous. Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
-  </si>
-  <si>
-    <t>Nous voulons que votre entreprise soit opérationnelle aussi rapidement que possible. Veuillez prévoir un délai de 24 heures à 2 jours pour que quelqu'un vous contacte directement au sujet de votre page personnalisée.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Notre boîte à outils contient tout ce dont vous avez besoin pour montrer à vos </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>clients/ employés</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> qu’ils passent avant tout et que vous vous souciez de leur santé et de la sécurité de leurs renseignements. Votre boîte à outils contient tout ce dont vous avez besoin pour soutenir vos interactions avec les clients : Publication sur les médias sociaux, utilisation d’autocollants et de GIF, affichage en magasin. Vous pouvez la télécharger directement sur notre site Web https://canatrace.com/fr/ Vous ne voyez pas ce dont vous avez besoin? Envoyez-nous un courriel et nous serons heureux de le créer pour vous.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La sécurité des données de vos </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">clients/ employés </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>est de la plus haute importance pour nous. La sécurité de notre plateforme a été validée.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Our toolkit has everything you need to show your </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>customers or employees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> that they come first; you care about their health and data safety. Your toolkit contains everything you need to support your customer interactions: Post on Social Media, use stickers and GIFs, display in store. You can download it directly from our website https://canatrace.com/ Don't see something you need? Email us and we would be happy to create it for you.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Your </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>customers or employee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> data security is of upmost importance to us. Our platform has been validated to be secure. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>COVID regulations are constantly evolving. Our data fields and templates are regularly updated to reflect the local and Provincial guidelines (including colour zones) so you don't have to take that on or worry. If something isn’t there that you need,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or something you don't need</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, let us know, we will get it done at no cost to you. For more information you can visit your provincial or municipal website.</t>
-    </r>
-  </si>
-  <si>
-    <t>Si vous êtes informé qu’une personne ayant visité votre établissement a été infectée, il vous suffit de nous contacter, et nous fournirons aux autorités sanitaires locales une liste de tous les clients qui pourraient avoir été exposés.</t>
-  </si>
-  <si>
-    <t>La recherche de contacts est le processus de collecte des données auprès de vos clients et vos employés afin de pouvoir les avertir en cas d'exposition à la COVID-19 dans votre établissement. Chaque province et municipalité a ses propres règles concernant les données à collecter.</t>
+    <t>What are the processes for COVID?</t>
+  </si>
+  <si>
+    <t>What are the COVID policies for businesses?</t>
+  </si>
+  <si>
+    <t>How do I get the latest information on COVID-19 course of action?</t>
+  </si>
+  <si>
+    <t>Are there any COVID measures?</t>
+  </si>
+  <si>
+    <t>Is it a mandatory requirement for people to share their details to trace the COVID-19 infection?</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>How are you doing Tracey?</t>
+  </si>
+  <si>
+    <t>How well are you doing?</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>What are the government requirements for gathering customer/ employee data?</t>
+  </si>
+  <si>
+    <t>data_collection</t>
+  </si>
+  <si>
+    <t>What should I do if an employee or a customer contracts COVID 19?</t>
+  </si>
+  <si>
+    <t>What happens if an employee or customer gets COVID 19?</t>
+  </si>
+  <si>
+    <t>How do I report when one of my customers or employees has COVID?</t>
+  </si>
+  <si>
+    <t>How can I let the authorities know an employee or a customer tested positive for COVID?</t>
+  </si>
+  <si>
+    <t>What do I do if a customer or an employee tests positive?</t>
+  </si>
+  <si>
+    <t>report_infections</t>
+  </si>
+  <si>
+    <t>What is done during contact tracing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I intended to collect information from my clients or employees? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I required or obliged to collect information from customers or employees to search for contacts? </t>
+  </si>
+  <si>
+    <t>temperature_check</t>
+  </si>
+  <si>
+    <t>thank_you</t>
+  </si>
+  <si>
+    <t>Thank you for the service</t>
+  </si>
+  <si>
+    <t>Thank you for the time and answering my questions</t>
+  </si>
+  <si>
+    <t>Appreciate your time and assistance</t>
+  </si>
+  <si>
+    <t>Thank you for the help and assistance</t>
+  </si>
+  <si>
+    <t>It was nice talking to you</t>
+  </si>
+  <si>
+    <t>Why do we even need to trace the contacts?</t>
+  </si>
+  <si>
+    <t>Why is contact tracing required?</t>
+  </si>
+  <si>
+    <t>Why is the data needed from contact trace?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whats up? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How's it going? </t>
+  </si>
+  <si>
+    <t>What is contact tracing or search for contacts mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is the search for contacts necessary? </t>
+  </si>
+  <si>
+    <t>How and where is the data stored?</t>
+  </si>
+  <si>
+    <t>Are the information collected from my employees or customers safely retained and secured?</t>
+  </si>
+  <si>
+    <t>Are you good?</t>
+  </si>
+  <si>
+    <t>greetings_2</t>
+  </si>
+  <si>
+    <t>assistance</t>
+  </si>
+  <si>
+    <t>greetings_1</t>
+  </si>
+  <si>
+    <t>Please type a question, and I’ll be happy to assist you right away!</t>
+  </si>
+  <si>
+    <t>Veuillez saisir une question et je serai ravi de vous aider tout de suite!</t>
+  </si>
+  <si>
+    <t>Hi Tracey.. Good Evening</t>
+  </si>
+  <si>
+    <t>Hi Tracey.. Good Afternoon</t>
+  </si>
+  <si>
+    <t>Hello Tracey...</t>
+  </si>
+  <si>
+    <t>Good Morning Tracey or Good Afternoon Tracey</t>
+  </si>
+  <si>
+    <t>How are you Tracey?</t>
+  </si>
+  <si>
+    <t>What's up Tracey? How are you doing?</t>
+  </si>
+  <si>
+    <t>How's it going?</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>I would require some assistance. Can you help me with?</t>
+  </si>
+  <si>
+    <t>Good Morning or Good Evening TrentCovidCare</t>
+  </si>
+  <si>
+    <t>Hello TrentCovidCare.</t>
+  </si>
+  <si>
+    <t>Can you help me with TrentCovidCare?</t>
+  </si>
+  <si>
+    <t>Tracey.. I need some assistance to begin with TrentCovidCare</t>
+  </si>
+  <si>
+    <t>I need help on TrentCovidCare</t>
+  </si>
+  <si>
+    <t>Tracey.. Can you get some details about TrentCovidCare</t>
+  </si>
+  <si>
+    <t>Tracey.. I want to know more about TrentCovidCare and its service</t>
+  </si>
+  <si>
+    <t>How much does TrentCovidCare cost?</t>
+  </si>
+  <si>
+    <t>Is there a price involved for TrentCovidCare?</t>
+  </si>
+  <si>
+    <t>What is the monthly fee for TrentCovidCare?</t>
+  </si>
+  <si>
+    <t>Does TrentCovidCare require any fee or payment?</t>
+  </si>
+  <si>
+    <t>Should I pay for TrentCovidCare?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do I have to pay for TrentCovidCare? </t>
+  </si>
+  <si>
+    <t>Is TrentCovidCare a trusted platform?</t>
+  </si>
+  <si>
+    <t>By using TrentCovidCare, is my stored information prone to theft or illegal usage?</t>
+  </si>
+  <si>
+    <t>Does TrentCovidCare have a secured storage system for storing people data?</t>
+  </si>
+  <si>
+    <t>Where does TrentCovidCare store all my customer data?</t>
+  </si>
+  <si>
+    <t>Where does TrentCovidCare store all my employee data?</t>
+  </si>
+  <si>
+    <t>What is the data storage system at TrentCovidCare?</t>
+  </si>
+  <si>
+    <t>How does TrentCovidCare stores the data?</t>
+  </si>
+  <si>
+    <t>How do my students use TrentCovidCare?</t>
+  </si>
+  <si>
+    <t>How easy is it for students to use?</t>
+  </si>
+  <si>
+    <t>How should my students be operating / work with TrentCovidCare?</t>
+  </si>
+  <si>
+    <t>How do my students enter their information?</t>
+  </si>
+  <si>
+    <t>Where should I enter the student information?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I collect my student's data? </t>
+  </si>
+  <si>
+    <t>What places are accessible in the Campus?</t>
+  </si>
+  <si>
+    <t>Is COVID screening at every entry point and exit point?</t>
+  </si>
+  <si>
+    <t>Can I use TrentCovidCare to know Covid Regulations?</t>
+  </si>
+  <si>
+    <t>What are the different zones in the university campus?</t>
+  </si>
+  <si>
+    <t>What are the seating regulations in the Library?</t>
+  </si>
+  <si>
+    <t>Is the hostel building a red zone?</t>
+  </si>
+  <si>
+    <t>faq_symptoms</t>
+  </si>
+  <si>
+    <t>am i going to die?</t>
+  </si>
+  <si>
+    <t>am i going to need hospital treatment?</t>
+  </si>
+  <si>
+    <t>are aches a symptom?</t>
+  </si>
+  <si>
+    <t>are the symptoms serious?</t>
+  </si>
+  <si>
+    <t>can people die from contacting covid-19?</t>
+  </si>
+  <si>
+    <t>can people die from coronavirus?</t>
+  </si>
+  <si>
+    <t>can there be complications from covid-19 symptoms?</t>
+  </si>
+  <si>
+    <t>how do i know i have covid-19?</t>
+  </si>
+  <si>
+    <t>how do i know if i'm a carrier of covid-19?</t>
+  </si>
+  <si>
+    <t>how do i know if i've caught coronavirus?</t>
+  </si>
+  <si>
+    <t>how high does my fever have to be for me to go to hospital?</t>
+  </si>
+  <si>
+    <t>is coughing a symptom of the disease?</t>
+  </si>
+  <si>
+    <t>is joint pain a symptom?</t>
+  </si>
+  <si>
+    <t>what are the signs and symptoms?</t>
+  </si>
+  <si>
+    <t>what are the signs of corona?</t>
+  </si>
+  <si>
+    <t>what are the signs of covid-19?</t>
+  </si>
+  <si>
+    <t>what do the symptoms look like?</t>
+  </si>
+  <si>
+    <t>what does the virus do to your body?</t>
+  </si>
+  <si>
+    <t>faq_vaccine</t>
+  </si>
+  <si>
+    <t>am i immune once i've been vaccinated?</t>
+  </si>
+  <si>
+    <t>can inoculation protect you from coronavirus?</t>
+  </si>
+  <si>
+    <t>can vaccines protect you from corona?</t>
+  </si>
+  <si>
+    <t>how long will it take to develop a vaccine?</t>
+  </si>
+  <si>
+    <t>is there a cure?</t>
+  </si>
+  <si>
+    <t>is there a vaccine against coronavirus?</t>
+  </si>
+  <si>
+    <t>is there si cure for covid-19?</t>
+  </si>
+  <si>
+    <t>what is herd immunity?</t>
+  </si>
+  <si>
+    <t>what does herd immunity mean?</t>
+  </si>
+  <si>
+    <t>when will inoculations be available?</t>
+  </si>
+  <si>
+    <t>how does vaccine work</t>
+  </si>
+  <si>
+    <t>university_open</t>
+  </si>
+  <si>
+    <t>are there any changes to the operations?</t>
+  </si>
+  <si>
+    <t>are there any changes to your services due to coronavirus?</t>
+  </si>
+  <si>
+    <t>any changes to the Trent services?</t>
+  </si>
+  <si>
+    <t>are you operating as normal?</t>
+  </si>
+  <si>
+    <t>are you operating at reduced capacity?</t>
+  </si>
+  <si>
+    <t>are you still operating as usual?</t>
+  </si>
+  <si>
+    <t>faq_testing</t>
+  </si>
+  <si>
+    <t>are tests available?</t>
+  </si>
+  <si>
+    <t>are there tests to detect corona?</t>
+  </si>
+  <si>
+    <t>can i have a test if i think i have coronavirus?</t>
+  </si>
+  <si>
+    <t>how are they testing people for covid19?</t>
+  </si>
+  <si>
+    <t>how can i get tested?</t>
+  </si>
+  <si>
+    <t>i think i have coronavirus, should i get a test?</t>
+  </si>
+  <si>
+    <t>how does testing work?</t>
+  </si>
+  <si>
+    <t>when should i get a test?</t>
+  </si>
+  <si>
+    <t>where are test available?</t>
+  </si>
+  <si>
+    <t>faq_howmany</t>
+  </si>
+  <si>
+    <t>are there a lot of cases right now?</t>
+  </si>
+  <si>
+    <t>have many people died due to covid-19?</t>
+  </si>
+  <si>
+    <t>how many cases have there been</t>
+  </si>
+  <si>
+    <t>how many cases of corona infection have there been?</t>
+  </si>
+  <si>
+    <t>how many have died due to coronavirus?</t>
+  </si>
+  <si>
+    <t>how many people have been infected?</t>
+  </si>
+  <si>
+    <t>how many people have tested positive?</t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t>do you have a disaster recovery plan?</t>
+  </si>
+  <si>
+    <t>are you keeping your staff safe?</t>
+  </si>
+  <si>
+    <t>how are you going to cope with coronavirus?</t>
+  </si>
+  <si>
+    <t>do you have a plan for recovery?</t>
+  </si>
+  <si>
+    <t>how are you protecting your staff?</t>
+  </si>
+  <si>
+    <t>faq_masks</t>
+  </si>
+  <si>
+    <t>can a mask protect me?</t>
+  </si>
+  <si>
+    <t>can covering my face protect me?</t>
+  </si>
+  <si>
+    <t>do i need to cover my face?</t>
+  </si>
+  <si>
+    <t>do i need to start covering my face?</t>
+  </si>
+  <si>
+    <t>do masks help stop the spread?</t>
+  </si>
+  <si>
+    <t>do masks help to stop covid 19?</t>
+  </si>
+  <si>
+    <t>do masks help to stop the spread of corona?</t>
+  </si>
+  <si>
+    <t>should i cover my face with a mask?</t>
+  </si>
+  <si>
+    <t>what is the right kind of mask to use?</t>
+  </si>
+  <si>
+    <t>what kind of mask should i use?</t>
+  </si>
+  <si>
+    <t>what type of face-mask do i need?</t>
+  </si>
+  <si>
+    <t>why are people using face masks?</t>
+  </si>
+  <si>
+    <t>will a mask protect me from the virus?</t>
+  </si>
+  <si>
+    <t>will it help to cover my face?</t>
+  </si>
+  <si>
+    <t>faq_spread</t>
+  </si>
+  <si>
+    <t>can coronavirus spread by coughing?</t>
+  </si>
+  <si>
+    <t>can coronavirus survive on skin?</t>
+  </si>
+  <si>
+    <t>can you catch corona from an unclean surface?</t>
+  </si>
+  <si>
+    <t>can you catch coronavirus from another person?</t>
+  </si>
+  <si>
+    <t>could i pass corona virus onto someone else?</t>
+  </si>
+  <si>
+    <t>does coughing spread corona?</t>
+  </si>
+  <si>
+    <t>how contagious is it?</t>
+  </si>
+  <si>
+    <t>faq_distancing</t>
+  </si>
+  <si>
+    <t>can i still go outside?</t>
+  </si>
+  <si>
+    <t>can i walk somewhere?</t>
+  </si>
+  <si>
+    <t>do i have to avoid people?</t>
+  </si>
+  <si>
+    <t>do i have to stay away from people?</t>
+  </si>
+  <si>
+    <t>do i have to stay inside?</t>
+  </si>
+  <si>
+    <t>for how long do i need to stay at home?</t>
+  </si>
+  <si>
+    <t>for what reasons can i still go outside?</t>
+  </si>
+  <si>
+    <t>for what reasons can i still travel?</t>
+  </si>
+  <si>
+    <t>how do i self isolate?</t>
+  </si>
+  <si>
+    <t>how does quarantine work?</t>
+  </si>
+  <si>
+    <t>how long do i have to self-isolate for?</t>
+  </si>
+  <si>
+    <t>how long do i have to stay inside</t>
+  </si>
+  <si>
+    <t>what are the guidelines for social-distancing</t>
+  </si>
+  <si>
+    <t>what is essential travel?</t>
+  </si>
+  <si>
+    <t>faq_supplies</t>
+  </si>
+  <si>
+    <t>i need to buy more medicine</t>
+  </si>
+  <si>
+    <t>should we be worried about food shortages?</t>
+  </si>
+  <si>
+    <t>what extra supplies to do i need</t>
+  </si>
+  <si>
+    <t>what kind of food should i buy?</t>
+  </si>
+  <si>
+    <t>what should i stock up on?</t>
+  </si>
+  <si>
+    <t>what type of food is good for stocking up?</t>
+  </si>
+  <si>
+    <t>is the office still open?</t>
+  </si>
+  <si>
+    <t>how can we meet virtually?</t>
+  </si>
+  <si>
+    <t>is the campus operating during the covid-19?</t>
+  </si>
+  <si>
+    <t>is the campus still open?</t>
+  </si>
+  <si>
+    <t>will the office continue operating as usual during the corona virus pandemic?</t>
+  </si>
+  <si>
+    <t>is the office currently operating?</t>
+  </si>
+  <si>
+    <t>Do I have to give my personal student information?</t>
+  </si>
+  <si>
+    <t>How do I collect my student or clients' data?</t>
+  </si>
+  <si>
+    <t>Do I need to purchase a subscription?</t>
+  </si>
+  <si>
+    <t>faq_curve</t>
+  </si>
+  <si>
+    <t>can we reduce the number of cases?</t>
+  </si>
+  <si>
+    <t>how quickly can covid-19 spread?</t>
+  </si>
+  <si>
+    <t>how quickly will coronavirus spread?</t>
+  </si>
+  <si>
+    <t>how quickly is covid-19 spreading?</t>
+  </si>
+  <si>
+    <t>how quickly is corona virus spreading?</t>
+  </si>
+  <si>
+    <t>how quickly could corona virus spread?</t>
+  </si>
+  <si>
+    <t>what does it mean the flatten the curve</t>
+  </si>
+  <si>
+    <t>what happens when there's a surge in cases?</t>
+  </si>
+  <si>
+    <t>Testing is done by appointment only and can be booked by contacting the clinic. Turnaround time for results is variable, depending on laboratory workload.</t>
+  </si>
+  <si>
+    <t>Les tests se font uniquement sur rendez-vous et peuvent être réservés en contactant la clinique. Le délai d'obtention des résultats est variable, en fonction de la charge de travail du laboratoire.</t>
+  </si>
+  <si>
+    <t>All students living in Trent residences are required to be fully vaccinated (two doses), as defined by the Province of Ontario, with some exceptions. All members of our campus communities are strongly encouraged to stay up-to-date with their vaccinations and get their COVID-19 booster doses as soon as they are eligible.</t>
+  </si>
+  <si>
+    <t>Tous les étudiants vivant dans les résidences de Trent doivent être entièrement vaccinés (deux doses), tel que défini par la province de l'Ontario, à quelques exceptions près. Tous les membres de nos communautés de campus sont fortement encouragés à rester à jour avec leurs vaccinations et à obtenir leurs doses de rappel COVID-19 dès qu'ils sont éligibles.</t>
+  </si>
+  <si>
+    <t>Peterborough Public Health is actively monitoring the Novel Coronavirus (COVID-19) and collaborating with local hospitals, primary care, emergency services, the Ministry of Health, and provincial and national colleagues.</t>
+  </si>
+  <si>
+    <t>Le service de santé publique de Peterborough surveille activement le nouveau coronavirus (COVID-19) et collabore avec les hôpitaux locaux, les soins primaires, les services d'urgence, le ministère de la Santé et des collègues provinciaux et nationaux.</t>
+  </si>
+  <si>
+    <t>Wearing a mask or face covering is just one of many ways to protect yourselves and others against COVID-19. You can also get your vaccine, stay home when sick, follow physical distancing and capacity limit guidelines, reduce close contacts, and practice good hand hygiene. Face coverings must be worn in all indoor spaces at the University, as well as outdoors where physical distancing cannot be maintained.</t>
+  </si>
+  <si>
+    <t>Le port d'un masque ou d'un couvre-visage n'est qu'une des nombreuses façons de se protéger et de protéger les autres contre la COVID-19. Vous pouvez également vous faire vacciner, rester à la maison lorsque vous êtes malade, suivre les directives de distanciation physique et de limitation de capacité, réduire les contacts étroits et pratiquer une bonne hygiène des mains. Les couvre-visages doivent être portés dans tous les espaces intérieurs de l'Université, ainsi qu'à l'extérieur où la distance physique ne peut être maintenue.</t>
+  </si>
+  <si>
+    <t>TrentCovidCare is a free and secure solution for universities and colleges to collect student information per city guidelines across Canada.</t>
+  </si>
+  <si>
+    <t>TrentCovidCare est une solution gratuite et sécurisée permettant aux universités et aux collèges de collecter des informations sur les étudiants conformément aux directives de la ville à travers le Canada.</t>
+  </si>
+  <si>
+    <t>Your student and staff data security is of utmost importance to us. This platform has been validated to be secure.</t>
+  </si>
+  <si>
+    <t>La sécurité des données de vos étudiants et de votre personnel est de la plus haute importance pour nous. Cette plateforme a été validée comme étant sécurisée.</t>
+  </si>
+  <si>
+    <t>In all scenarios outlined below, the University continues to follow Public Health directives and provincial guidelines. It is important to note that, as privileged medical information, a diagnosis of COVID-19 is considered confidential. As such, the University will never release identifying information of an individual who tested positive for COVID-19.</t>
+  </si>
+  <si>
+    <t>Dans tous les scénarios décrits ci-dessous, l'Université continue de suivre les directives de la santé publique et les directives provinciales. Il est important de noter qu'en tant qu'information médicale privilégiée, un diagnostic de COVID-19 est considéré comme confidentiel. En tant que tel, l'Université ne divulguera jamais les informations d'identification d'une personne dont le test COVID-19 est positif.</t>
+  </si>
+  <si>
+    <t>Contact tracing is the process of collecting your customer and employee data so that you can notify them in case of exposure to COVID-19 in your establishment. Each province and municipality has its own rules for what data needs to be collected.</t>
+  </si>
+  <si>
+    <t>Le suivi des contacts est le processus de collecte des données de vos clients et de vos employés afin que vous puissiez les avertir en cas d'exposition au COVID-19 dans votre établissement. Chaque province et municipalité a ses propres règles concernant les données à recueillir.</t>
+  </si>
+  <si>
+    <t>Depending on the province, it is either mandatory or recommended for public health. We believe that by collecting customer data we can help to keep Canadians safe and prevent further spread. For more information, you can visit your provincial or municipal website.</t>
   </si>
   <si>
     <t>Selon la province, la divulgation est soit obligatoire, soit recommandée aux fins de santé publique. Nous croyons qu'en collectant les données des clients, nous pouvons contribuer à assurer la sécurité des Canadiens et à prévenir toute propagation. Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
   </si>
   <si>
-    <t>Nous adhérons à la législation canadienne sur la protection des données et des politiques. Toutes les données sont conservées dans une base de données sécurisée pendant 60 jours et ne seront utilisées qu'en cas d'exposition à la COVID-19. Après 60 jours, toutes les données sont supprimées de façon permanente de notre base de données.</t>
-  </si>
-  <si>
-    <t>Nous croyons qu'en collectant les données des clients, nous pouvons contribuer à assurer la sécurité des Canadiens et à prévenir toute propagation. Inscrivez-vous à CANATRACE dès aujourd'hui. Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
+    <t>Droplets from a cough may travel farther than 6 feet and could potentially carry enough COVID-19 virus to infect another person.</t>
+  </si>
+  <si>
+    <t>Les gouttelettes d'une toux peuvent parcourir plus de 6 pieds et pourraient potentiellement transporter suffisamment de virus COVID-19 pour infecter une autre personne.</t>
+  </si>
+  <si>
+    <t>We encourage you to wear a mask in crowds and high-capacity spaces where physical distancing cannot be maintained. Wear a mask in public, especially indoors or when physical distancing is not possible.</t>
+  </si>
+  <si>
+    <t>Nous vous encourageons à porter un masque dans les foules et les espaces à grande capacité où la distance physique ne peut être maintenue. Portez un masque en public, en particulier à l'intérieur ou lorsque la distanciation physique n'est pas possible.</t>
+  </si>
+  <si>
+    <t>Hello!! Welcome to TrentCovidCare! To start, please type a question, and I’ll be happy to assist you right away!</t>
+  </si>
+  <si>
+    <t>Bonjour!! Bienvenue à TrentCovidCare! Pour commencer, veuillez saisir une question et je serai ravi de vous aider tout de suite!</t>
+  </si>
+  <si>
+    <t>I'm doing great. Hope you are doing good. Is there anything that I can help you with?</t>
+  </si>
+  <si>
+    <t>Je le fais bien. J'espère que tu vas bien. Y a-t-il quelque chose que je puisse faire pour vous?</t>
+  </si>
+  <si>
+    <t>The Peterborough campus, including Trent residences which are not connected with the quarantine area, remains open with reduced operations, following details outlined in our latest Trent Forward update.</t>
+  </si>
+  <si>
+    <t>Le campus de Peterborough, y compris les résidences de Trent qui ne sont pas connectées à la zone de quarantaine, reste ouvert avec des opérations réduites, selon les détails décrits dans notre dernière mise à jour Trent Forward.</t>
+  </si>
+  <si>
+    <t>TrentCovidCare can be used on any campus where student or staff data needs to be captured for COVID tracing purposes.</t>
+  </si>
+  <si>
+    <t>TrentCovidCare peut être utilisé sur n'importe quel campus où les données des étudiants ou du personnel doivent être capturées à des fins de traçage COVID.</t>
+  </si>
+  <si>
+    <t>For more information, you can visit your university, provincial or municipal website.</t>
   </si>
   <si>
     <t>Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
   </si>
   <si>
-    <t>Sur la base des commentaires de nos clients, nous avons mis à jour nos modèles pour vous permettre d'inscrire plusieurs installations sous un seul nom d’entreprise. Si un élément dont vous avez besoin n'est pas présent, faites-le-nous savoir et nous l'ajouterons sans frais pour vous. Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
-  </si>
-  <si>
-    <t>Oui, il est déjà utilisé dans ces types d’installations. CANATRACE peut être utilisé dans n'importe quelle installation où les données des clients ou des employés doivent être saisies à des fins de recherche de contacts en matière de COVID.</t>
-  </si>
-  <si>
-    <t>CANATRACEMC est né d’une idée dont l’objectif était d’aider les entreprises locales de partout au Canada qui se démènent pour ramener leurs clients.
-Nous avons pensé que nous pourrions utiliser notre expertise dans le domaine de la science du mouvement et de la sécurité des données pour offrir aux entreprises une solution rapide et sécuritaire pour collecter les renseignements de leurs clients et de leurs employés, conformément aux directives municipales, afin qu’elles puissent apaiser les inquiétudes de leurs clients et éliminer les désagréments liés à la collecte de données manuelle et à leur sécurité. Nous voulions rendre cette solution accessible à toutes les entreprises qui en ont besoin en cette période économique difficile, et c'est pourquoi notre plateforme est gratuite.</t>
-  </si>
-  <si>
-    <t>Non. CANATRACE ne stocke pas les données des clients/employés dans un seul répertoire. Chaque visite d'utilisateur est unique, et toutes les données des clients/employés sont détruites après une période de 60 jours.</t>
-  </si>
-  <si>
-    <t>Non. Vous n'avez pas besoin d'installer quoi que ce soit. À condition que vous disposiez d'un ordinateur, d'un téléphone ou d'une tablette qui sont connectés à Internet, vous pourrez utiliser CANATRACE.</t>
-  </si>
-  <si>
-    <t>Toutes les données sont stockées dans un centre de données dédié et sécurisé à Toronto, au Canada. La sécurité frontalière, l'accès aux systèmes, la politique de pare-feu, la surveillance et le contrôle de l'état de santé 24 heures sur 24 et 7 jours sur 7 sont entièrement gérés et surveillés avec diligence.
-Notre environnement de nuage privé entièrement redondant est géré depuis un centre de données certifié SSAE 16. Situé dans un centre de télécommunications nord-américain de premier plan et une voie d'accès critique à tous les principaux fournisseurs infonuagiques et de SaaS (y compris Amazon Web Services et Azure), votre outil de dépistage en ligne de la COVID se trouve à un point de connexion pour les réseaux de données d'entreprise, l'homologage Internet et les installations de stockage critiques. Notre environnement a été spécialement conçu pour répondre aux normes les plus élevées en matière de sécurité, de fiabilité et de connectivité.</t>
-  </si>
-  <si>
-    <t>Contactez-nous à info@groundlevelinsights.com</t>
-  </si>
-  <si>
-    <t>What are the processes for COVID?</t>
-  </si>
-  <si>
-    <t>What are the COVID policies for businesses?</t>
-  </si>
-  <si>
-    <t>How do I get the latest information on COVID-19 course of action?</t>
-  </si>
-  <si>
-    <t>Are there any COVID measures?</t>
-  </si>
-  <si>
-    <t>Is it a mandatory requirement for people to share their details to trace the COVID-19 infection?</t>
-  </si>
-  <si>
-    <t>What is the process to register with CANATRACE?</t>
-  </si>
-  <si>
-    <t>What is the registration procedure?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can I collect my employees' data? </t>
-  </si>
-  <si>
-    <t>When should I start paying for CANATRACE?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is customer data collection useful for the fight against COVID? </t>
-  </si>
-  <si>
-    <t>Can we use it in movie theatres/ cinemas?</t>
-  </si>
-  <si>
-    <t>How to configure my dashboard?</t>
-  </si>
-  <si>
-    <t>How are you?</t>
-  </si>
-  <si>
-    <t>How are you doing Tracey?</t>
-  </si>
-  <si>
-    <t>How well are you doing?</t>
-  </si>
-  <si>
-    <t>assist</t>
-  </si>
-  <si>
-    <t>How do I collect my customer or clients' data?</t>
-  </si>
-  <si>
-    <t>How do my employees/ customers enter their information?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do I have to pay for CANATRACE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What information about the customers or empoyees should I collect? </t>
-  </si>
-  <si>
-    <t>What customer or employee information do I need to collect?</t>
-  </si>
-  <si>
-    <t>What are the government requirements for gathering customer/ employee data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can I know what information should be collected from customers and employees? </t>
-  </si>
-  <si>
-    <t>Do I need to get customers name and phone number?</t>
-  </si>
-  <si>
-    <t>Do I need to get the employees name and what time they were onsite?</t>
-  </si>
-  <si>
-    <t>What data do I need to collect from my customers and employees?</t>
-  </si>
-  <si>
-    <t>Is there any list or prerequisite for gathering customer/ employee data?</t>
-  </si>
-  <si>
-    <t>data_collection</t>
-  </si>
-  <si>
-    <t>What should I do if an employee or a customer contracts COVID 19?</t>
-  </si>
-  <si>
-    <t>What happens if an employee or customer gets COVID 19?</t>
-  </si>
-  <si>
-    <t>How do I report when one of my customers or employees has COVID?</t>
-  </si>
-  <si>
-    <t>How can I let the authorities know an employee or a customer tested positive for COVID?</t>
-  </si>
-  <si>
-    <t>What do I do if a customer or an employee tests positive?</t>
-  </si>
-  <si>
-    <t>report_infections</t>
-  </si>
-  <si>
-    <t>What is done during contact tracing?</t>
-  </si>
-  <si>
-    <t>Do I have to collect my customers or employees information?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am I intended to collect information from my clients or employees? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am I required or obliged to collect information from customers or employees to search for contacts? </t>
-  </si>
-  <si>
-    <t>COVID regulations vary by province and municipality. Please check local health guidelines to confirm if you need to check employees and customers temperatures. Our data fields and templates are regularly updated to reflect the local and Provincial guidelines (including colour zones temperature check) and include all the data fields for the information you need to collect. If something isn’t there that you need, let us know, we will get it done at no cost to you. For more information you can visit your provincial or municipal website.</t>
-  </si>
-  <si>
-    <t>Should I be screening my employees and customers for a temperature check?</t>
-  </si>
-  <si>
-    <t>Do I need to take my employees and customers temperature?</t>
-  </si>
-  <si>
-    <t>Do I need to store temperature checks for my employees and customers?</t>
-  </si>
-  <si>
-    <t>How do I know if my employee/ customer has a high temperature?</t>
-  </si>
-  <si>
-    <t>Is it important to take my employees and customers temperature?</t>
-  </si>
-  <si>
-    <t>Does the screening procedure include a temperature check for employees and customers?</t>
-  </si>
-  <si>
-    <t>temperature_check</t>
-  </si>
-  <si>
-    <t>La réglementation liée à la COVID varie selon les provinces et les municipalités. Veuillez consulter les directives sanitaires locales pour savoir si vous devez vérifier la température de vos employés/ clients. Nos champs de données et nos modèles sont régulièrement mis à jour pour refléter les directives locales et provinciales (y compris les vérifications de température selon la zone de couleur) et comprennent tous les champs de données pour les renseignements que vous devez collecter. Si un élément dont vous avez besoin n'est pas présent, faites-le-nous savoir et nous l'ajouterons sans frais pour vous. Pour plus de renseignements, vous pouvez consulter le site Web de votre province ou de votre municipalité.</t>
-  </si>
-  <si>
-    <t>thank_you</t>
-  </si>
-  <si>
-    <t>Thank you for the service</t>
-  </si>
-  <si>
-    <t>Thank you for the time and answering my questions</t>
-  </si>
-  <si>
-    <t>Appreciate your time and assistance</t>
-  </si>
-  <si>
-    <t>Thank you for reaching CANATRACE and am happy anwering your questions. If you still have any questions unanswered, please drop an email to info@groundlevelinsights.com. Our support person will contact you. Have a wonderful day!</t>
-  </si>
-  <si>
-    <t>Merci d'avoir contacté CANATRACE et je suis heureux de répondre à vos questions. Si vous avez encore des questions sans réponse, envoyez un e-mail à info@groundlevelinsights.com. Notre personne de soutien prendra contact avec vous. Bonne journée!</t>
-  </si>
-  <si>
-    <t>Thank you for the help and assistance</t>
-  </si>
-  <si>
-    <t>It was nice talking to you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What occurs to the customer or employee data? </t>
-  </si>
-  <si>
-    <t>What happens with the employee or customer data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What happens to the customer or employee data? </t>
-  </si>
-  <si>
-    <t>Why do we even need to trace the contacts?</t>
-  </si>
-  <si>
-    <t>Why is contact tracing required?</t>
-  </si>
-  <si>
-    <t>Why is the data needed from contact trace?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whats up? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How's it going? </t>
-  </si>
-  <si>
-    <t>How should my employees/ customers be operating / work with CANATRACE?</t>
-  </si>
-  <si>
-    <t>Are there posters for CANATRACE?</t>
-  </si>
-  <si>
-    <t>Is there any signage for CANATRACE?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can customers or employees learn how to use or work with Canatrace? </t>
-  </si>
-  <si>
-    <t>What is contact tracing or search for contacts mean?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is the search for contacts necessary? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do I have to keep the results of temperature checks? </t>
-  </si>
-  <si>
-    <t>Is an application necessary?</t>
-  </si>
-  <si>
-    <t>How and where is the data stored?</t>
-  </si>
-  <si>
-    <t>Are the information collected from my employees or customers safely retained and secured?</t>
-  </si>
-  <si>
-    <t>Who can I contact in case of problems or issues?</t>
-  </si>
-  <si>
-    <t>What are the government requirements for client / employee data collection?</t>
-  </si>
-  <si>
-    <t>How can I let my customers or employees know about CANATRACE?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can I inform my clients or employees on Canatrace? </t>
-  </si>
-  <si>
-    <t>Are you good?</t>
-  </si>
-  <si>
-    <t>Will CANATRACE charge for upcoming months/ year?</t>
-  </si>
-  <si>
-    <t>greetings_2</t>
-  </si>
-  <si>
-    <t>assistance</t>
-  </si>
-  <si>
-    <t>I'm doing great. Hope you are doing good. Is there anything that I can help you with?</t>
-  </si>
-  <si>
-    <t>Je le fais bien. J'espère que tu vas bien. Y a-t-il quelque chose que je puisse faire pour vous?</t>
-  </si>
-  <si>
-    <t>greetings_1</t>
-  </si>
-  <si>
-    <t>Bonjour!! Bienvenue à CANATRACE! Pour commencer, veuillez saisir une question et je serai ravi de vous aider tout de suite!</t>
-  </si>
-  <si>
-    <t>Please type a question, and I’ll be happy to assist you right away!</t>
-  </si>
-  <si>
-    <t>Veuillez saisir une question et je serai ravi de vous aider tout de suite!</t>
-  </si>
-  <si>
-    <t>Hi Tracey.. Good Evening</t>
-  </si>
-  <si>
-    <t>Good Morning or Good Evening CANATRACE</t>
-  </si>
-  <si>
-    <t>Hi Tracey.. Good Afternoon</t>
-  </si>
-  <si>
-    <t>Hello CANATRACE.</t>
-  </si>
-  <si>
-    <t>Hello Tracey...</t>
-  </si>
-  <si>
-    <t>Good Morning Tracey or Good Afternoon Tracey</t>
-  </si>
-  <si>
-    <t>How are you Tracey?</t>
-  </si>
-  <si>
-    <t>What's up Tracey? How are you doing?</t>
-  </si>
-  <si>
-    <t>How's it going?</t>
-  </si>
-  <si>
-    <t>Thank you</t>
-  </si>
-  <si>
-    <t>Can you help me with CANATRACE?</t>
-  </si>
-  <si>
-    <t>Tracey.. I need some assistance to begin with CANATRACE</t>
-  </si>
-  <si>
-    <t>I need help on CANATRACE</t>
-  </si>
-  <si>
-    <t>Tracey.. Can you get some details about CANATRACE</t>
-  </si>
-  <si>
-    <t>Tracey.. I want to know more about CANATRACE and its service</t>
-  </si>
-  <si>
-    <t>I would require some assistance. Can you help me with?</t>
+    <t>COVID-19 vaccines help your body develop protection from the virus that causes COVID-19. Although vaccinated people sometimes get infected with the virus that causes COVID-19, All students living in Trent residences are required to be fully vaccinated (two doses), as defined by the Province of Ontario, with some exceptions. All members of our campus communities are strongly encouraged to stay up-to-date with your vaccinations and get your COVID-19 booster doses as soon as you are eligible.</t>
+  </si>
+  <si>
+    <t>Les vaccins COVID-19 aident votre corps à développer une protection contre le virus qui cause le COVID-19. Bien que les personnes vaccinées soient parfois infectées par le virus qui cause la COVID-19, tous les étudiants vivant dans les résidences de Trent doivent être entièrement vaccinés (deux doses), tel que défini par la province de l'Ontario, à quelques exceptions près. Tous les membres de nos communautés de campus sont fortement encouragés à rester à jour avec vos vaccinations et à obtenir vos doses de rappel COVID-19 dès que vous êtes éligible.</t>
+  </si>
+  <si>
+    <t>Thank you for reaching TrentCovidCare and am happy to answer your questions. If you still have any questions unanswered, please drop an email to trentu_covid@ca. Our support person will contact you. Have a wonderful day!</t>
+  </si>
+  <si>
+    <t>Merci d'avoir contacté TrentCovidCare et je suis heureux de répondre à vos questions. Si vous avez encore des questions sans réponse, veuillez envoyer un courriel à trentu_covid@ca. Notre personne de soutien vous contactera. Bonne journée!</t>
+  </si>
+  <si>
+    <t>Once TrentCovidCare is set up for your students, all you need to do is display the QR code so students/staff can scan it. They scan the code which takes them to a unique page for your business. They then submit their contact information and answer the screening questions based on local legislation. Once completed they receive a green check mark to show you they have completed the process.</t>
+  </si>
+  <si>
+    <t>Une fois TrentCovidCare configuré pour vos élèves, il vous suffit d'afficher le code QR pour que les élèves/le personnel puissent le scanner. Ils scannent le code qui les amène à une page unique pour votre entreprise. Ils soumettent ensuite leurs coordonnées et répondent aux questions de sélection en fonction de la législation locale. Une fois terminé, ils reçoivent une coche verte pour vous montrer qu'ils ont terminé le processus.</t>
+  </si>
+  <si>
+    <t>In all scenarios, the University will follow the Public Health directives and provincial guidelines. To guide our campus community when possible exposure to COVID-19 is suspected, or in the event of a confirmed case of COVID-19, the Trent Forward team has shared COVID Case Reporting and Expectation resources with employees and students. Peterborough Public Health - 705-743-1000 x 401</t>
+  </si>
+  <si>
+    <t>Dans tous les scénarios, l'Université suivra les directives de la santé publique et les lignes directrices provinciales. Pour guider la communauté de notre campus lorsqu'une exposition possible au COVID-19 est suspectée, ou en cas de cas confirmé de COVID-19, l'équipe de Trent Forward a partagé les ressources de déclaration de cas et d'attentes COVID avec les employés et les étudiants. Santé publique de Peterborough - 705-743-1000 poste 401</t>
+  </si>
+  <si>
+    <t>People with COVID-19 have had a wide range of symptoms reported – ranging from mild symptoms to severe illness. Symptoms may appear 2-14 days after exposure to the virus. Anyone can have mild to severe symptoms. Fever or chills, Cough, Shortness of breath or difficulty breathing, Fatigue Muscle or body aches, and Headache</t>
+  </si>
+  <si>
+    <t>Les personnes atteintes de COVID-19 ont présenté un large éventail de symptômes, allant de symptômes légers à une maladie grave. Les symptômes peuvent apparaître 2 à 14 jours après l'exposition au virus. Tout le monde peut présenter des symptômes légers à graves. Fièvre ou frissons, Toux, Essoufflement ou difficulté à respirer, Fatigue, Douleurs musculaires ou corporelles et maux de tête</t>
+  </si>
+  <si>
+    <t>All data is stored in a dedicated, secure Data Centre in Toronto, Canada. All border security, systems access, firewall policy, and 24/7 monitoring and health status-checking are fully managed and fanatically guarded. Our fully redundant Private Cloud environment is run from an SSAE 16-certified Data Centre. Located at a primarily North American telecommunications hub and the critical onramp to all major cloud and SaaS providers (including Amazon Web Services and Azure) your COVID Screener Online Tool exists at a connection point for corporate data networks, Internet peering, and critical storage facilities. Our environment has been specifically designed to accommodate the highest standards of security, reliability, and connectivity.</t>
+  </si>
+  <si>
+    <t>Toutes les données sont stockées dans un centre de données dédié et sécurisé à Toronto, au Canada. La sécurité frontalière, l'accès aux systèmes, la politique de pare-feu, la surveillance et le contrôle de l'état de santé 24 heures sur 24 et 7 jours sur 7 sont entièrement gérés et surveillés avec diligence.Notre environnement de nuage privé entièrement redondant est géré depuis un centre de données certifié SSAE 16. Situé dans un centre de télécommunications nord-américain de premier plan et une voie d'accès critique à tous les principaux fournisseurs infonuagiques et de SaaS (y compris Amazon Web Services et Azure), votre outil de dépistage en ligne de la COVID se trouve à un point de connexion pour les réseaux de données d'entreprise, l'homologage Internet et les installations de stockage critiques. Notre environnement a été spécialement conçu pour répondre aux normes les plus élevées en matière de sécurité, de fiabilité et de connectivité.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1249,18 +1519,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,12 +1543,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1298,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1312,12 +1570,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1352,30 +1606,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,1517 +1858,1597 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="B178" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="B179" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B192" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>186</v>
+    </row>
+    <row r="193" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3112,17 +3456,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53AD1D5-5D95-4355-8A6B-067C556B83F8}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3133,317 +3480,262 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="B23" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>229</v>
+      <c r="B24" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
-    <sortCondition ref="A1:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3462,26 +3754,26 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="51" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3491,8 +3783,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3502,8 +3794,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3513,8 +3805,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3524,8 +3816,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3535,8 +3827,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3546,161 +3838,161 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -3711,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3722,18 +4014,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -3744,7 +4036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
@@ -3755,8 +4047,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3766,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3777,8 +4069,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3788,7 +4080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -3799,7 +4091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -3810,7 +4102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -3821,7 +4113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3832,73 +4124,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -3909,7 +4201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
@@ -3920,7 +4212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3931,7 +4223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3942,7 +4234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
@@ -3953,7 +4245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
@@ -3964,7 +4256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -3975,7 +4267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
@@ -3986,7 +4278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>18</v>
       </c>
@@ -3997,7 +4289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
@@ -4008,7 +4300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>200</v>
       </c>
@@ -4019,7 +4311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>107</v>
       </c>
@@ -4030,7 +4322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -4052,7 +4344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>22</v>
       </c>
@@ -4063,7 +4355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -4074,7 +4366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
@@ -4085,7 +4377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
@@ -4096,139 +4388,139 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
@@ -4239,7 +4531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>32</v>
       </c>
@@ -4250,7 +4542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>33</v>
       </c>
@@ -4261,8 +4553,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4272,8 +4564,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4283,8 +4575,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4294,7 +4586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>36</v>
       </c>
@@ -4305,8 +4597,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -4316,8 +4608,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4327,8 +4619,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -4338,8 +4630,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4349,8 +4641,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -4360,7 +4652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>39</v>
       </c>
@@ -4371,8 +4663,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -4382,8 +4674,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -4393,8 +4685,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -4404,8 +4696,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -4415,8 +4707,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -4426,7 +4718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>120</v>
       </c>
@@ -4437,8 +4729,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -4448,8 +4740,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4459,8 +4751,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4470,8 +4762,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4481,7 +4773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>47</v>
       </c>
@@ -4492,7 +4784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>48</v>
       </c>
@@ -4503,8 +4795,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4514,8 +4806,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -4525,8 +4817,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4536,8 +4828,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4547,8 +4839,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -4558,7 +4850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>203</v>
       </c>
@@ -4569,8 +4861,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -4580,8 +4872,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4591,8 +4883,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4602,8 +4894,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4613,8 +4905,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4624,7 +4916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>217</v>
       </c>
@@ -4635,8 +4927,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -4646,8 +4938,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -4657,8 +4949,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -4668,8 +4960,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -4679,8 +4971,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -4690,7 +4982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>59</v>
       </c>
@@ -4701,8 +4993,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -4712,8 +5004,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -4723,8 +5015,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -4734,8 +5026,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -4745,8 +5037,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -4756,7 +5048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>62</v>
       </c>
@@ -4767,8 +5059,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -4778,8 +5070,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -4789,8 +5081,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -4800,8 +5092,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -4811,8 +5103,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -4822,7 +5114,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>90</v>
       </c>
@@ -4833,7 +5125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>67</v>
       </c>
@@ -4844,7 +5136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>68</v>
       </c>
@@ -4855,7 +5147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>69</v>
       </c>
@@ -4866,7 +5158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>70</v>
       </c>
@@ -4877,8 +5169,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
+    <row r="129" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -4888,462 +5180,462 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
+    <row r="130" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
+    <row r="131" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
+    <row r="132" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
+    <row r="133" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
+    <row r="136" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
+    <row r="137" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
+    <row r="138" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+    <row r="139" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+    <row r="140" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
+    <row r="142" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
+    <row r="143" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
+    <row r="144" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="14" t="s">
+    <row r="146" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="11" t="s">
+    <row r="148" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+    <row r="150" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="11" t="s">
+    <row r="151" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="11" t="s">
+    <row r="152" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A154" s="11" t="s">
+    <row r="154" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+    <row r="155" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+    <row r="156" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
+    <row r="157" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A158" s="15" t="s">
+    <row r="158" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A159" s="15" t="s">
+    <row r="159" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="11" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="11" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="11" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="11" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="11" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="11" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -5368,269 +5660,269 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="51" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>265</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>266</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>267</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>314</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>330</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>315</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>301</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>302</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>303</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>306</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>307</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -5638,7 +5930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>94</v>
       </c>
@@ -5646,15 +5938,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>91</v>
       </c>
@@ -5662,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
@@ -5670,15 +5962,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
@@ -5686,15 +5978,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -5702,7 +5994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -5710,7 +6002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -5718,7 +6010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -5726,7 +6018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -5734,7 +6026,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>129</v>
       </c>
@@ -5742,7 +6034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -5750,7 +6042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -5758,7 +6050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -5766,7 +6058,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -5774,103 +6066,103 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>19</v>
       </c>
@@ -5878,7 +6170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
@@ -5886,7 +6178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>22</v>
       </c>
@@ -5894,7 +6186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>23</v>
       </c>
@@ -5902,7 +6194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>24</v>
       </c>
@@ -5910,7 +6202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>108</v>
       </c>
@@ -5918,7 +6210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>25</v>
       </c>
@@ -5926,7 +6218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>109</v>
       </c>
@@ -5934,7 +6226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>26</v>
       </c>
@@ -5942,7 +6234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>111</v>
       </c>
@@ -5950,7 +6242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>110</v>
       </c>
@@ -5958,7 +6250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>27</v>
       </c>
@@ -5966,7 +6258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>28</v>
       </c>
@@ -5974,7 +6266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>29</v>
       </c>
@@ -5982,7 +6274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>201</v>
       </c>
@@ -5990,7 +6282,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>113</v>
       </c>
@@ -5998,7 +6290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>116</v>
       </c>
@@ -6006,7 +6298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
@@ -6014,103 +6306,103 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>39</v>
       </c>
@@ -6118,55 +6410,55 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>313</v>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>120</v>
       </c>
@@ -6174,39 +6466,39 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>47</v>
       </c>
@@ -6214,7 +6506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>48</v>
       </c>
@@ -6222,47 +6514,47 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>203</v>
       </c>
@@ -6270,143 +6562,143 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>62</v>
       </c>
@@ -6414,47 +6706,47 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>90</v>
       </c>
@@ -6462,7 +6754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>67</v>
       </c>
@@ -6470,7 +6762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>68</v>
       </c>
@@ -6478,7 +6770,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>69</v>
       </c>
@@ -6486,7 +6778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>70</v>
       </c>
@@ -6494,356 +6786,356 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
+    <row r="143" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="11" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="11" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="11" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="11" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="11" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
+    <row r="157" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="14" t="s">
+    <row r="158" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="11" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="11" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="11" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="11" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="13" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="15" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="15" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="11" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="11" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="11" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="11" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="11" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="11" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="11" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="11" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>280</v>
+    <row r="184" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
